--- a/Reservation_Dataset_Sets_Maps_based_Comparison.xlsx
+++ b/Reservation_Dataset_Sets_Maps_based_Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IntelliJ_Workspace\performance-reconciler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9366A19-D776-4B48-91AC-084C7C77CC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C3950C-6D58-46EF-AC6D-15CA3997EFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="6" xr2:uid="{01B5B808-35CD-446D-B496-2DBD45D6B974}"/>
   </bookViews>
@@ -21,9 +21,6 @@
     <sheet name="JDK-8" sheetId="6" r:id="rId6"/>
     <sheet name="JDK-11" sheetId="7" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -99,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18949,71 +18949,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="JDK8-Median Time"/>
-      <sheetName val="JDK8-Memory"/>
-      <sheetName val="JDK11-Median Time"/>
-      <sheetName val="JDK11-Memory"/>
-      <sheetName val="JDK-8"/>
-      <sheetName val="JDK-11"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>EC</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>JDK</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>1000000</v>
-          </cell>
-          <cell r="C31">
-            <v>24775</v>
-          </cell>
-          <cell r="D31">
-            <v>22162</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>EC</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>JDK</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>1000000</v>
-          </cell>
-          <cell r="B28">
-            <v>3386.52</v>
-          </cell>
-          <cell r="C28">
-            <v>3457.03</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -19967,12 +19902,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4B4145-FD5F-45E9-B123-CDD48B2B98A1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="8.83984375" style="1"/>
+  </cols>
   <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19982,10 +19923,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CDA92C-18C7-41F5-B865-B26E0F862392}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="8.83984375" style="1"/>
+  </cols>
   <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
